--- a/tests/validation_results/Validation_Inputs_Loci10_includeall.xlsx
+++ b/tests/validation_results/Validation_Inputs_Loci10_includeall.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F08B5E6-2F0C-4165-A738-2118A9850E7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB2909A-AB11-4201-A7F0-0637F093182C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36690" yWindow="4140" windowWidth="21600" windowHeight="11385" tabRatio="814" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33450" yWindow="2355" windowWidth="21600" windowHeight="11385" tabRatio="814" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="279">
   <si>
     <t>Name</t>
   </si>
@@ -1662,9 +1662,6 @@
   </si>
   <si>
     <t>ComFsweep</t>
-  </si>
-  <si>
-    <t>Frequency Sweep</t>
   </si>
   <si>
     <t>General</t>
@@ -2738,24 +2735,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2781,6 +2760,24 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -3872,17 +3869,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>197</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>198</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
@@ -3918,7 +3915,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>168</v>
@@ -3927,12 +3924,12 @@
         <v>43977</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>168</v>
@@ -3941,12 +3938,12 @@
         <v>44015</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>168</v>
@@ -3955,7 +3952,7 @@
         <v>44030</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,7 +4176,7 @@
         <v>169</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4212,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4223,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,24 +4247,24 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="34" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="34" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4352,44 +4349,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>183</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4521,7 +4518,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="83"/>
@@ -4583,13 +4580,13 @@
     </row>
     <row r="3" spans="1:28" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="54" t="s">
         <v>189</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>190</v>
       </c>
       <c r="D3" s="53" t="b">
         <v>0</v>
@@ -4597,7 +4594,7 @@
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="92" t="s">
         <v>6</v>
@@ -4733,16 +4730,16 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>251</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -4771,25 +4768,25 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>255</v>
-      </c>
       <c r="G7" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -9668,7 +9665,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="83"/>
@@ -9712,13 +9709,13 @@
     </row>
     <row r="3" spans="1:19" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>189</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>190</v>
       </c>
       <c r="D3" s="50" t="b">
         <v>0</v>
@@ -9726,42 +9723,42 @@
     </row>
     <row r="4" spans="1:19" s="46" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="94"/>
       <c r="D4" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" s="91"/>
       <c r="F4" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I4" s="91"/>
       <c r="J4" s="89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K4" s="91"/>
       <c r="L4" s="89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M4" s="91"/>
       <c r="N4" s="89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O4" s="91"/>
       <c r="P4" s="89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="91"/>
       <c r="R4" s="89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S4" s="91"/>
     </row>
@@ -9770,55 +9767,55 @@
         <v>0</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>166</v>
@@ -9826,13 +9823,13 @@
     </row>
     <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -9853,13 +9850,13 @@
     </row>
     <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -9880,13 +9877,13 @@
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -9907,13 +9904,13 @@
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -9934,13 +9931,13 @@
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -9961,13 +9958,13 @@
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -9988,13 +9985,13 @@
     </row>
     <row r="12" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -10015,13 +10012,13 @@
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -10042,13 +10039,13 @@
     </row>
     <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -10069,13 +10066,13 @@
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" t="s">
         <v>265</v>
       </c>
-      <c r="B15" t="s">
-        <v>266</v>
-      </c>
       <c r="C15" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -13394,13 +13391,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>268</v>
       </c>
       <c r="D5" s="18" t="b">
         <v>0</v>
@@ -13408,13 +13405,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>270</v>
       </c>
       <c r="D6" s="18" t="b">
         <v>0</v>
@@ -13422,13 +13419,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>272</v>
       </c>
       <c r="D7" s="18" t="b">
         <v>0</v>
@@ -13436,13 +13433,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>274</v>
       </c>
       <c r="D8" s="18" t="b">
         <v>0</v>
@@ -13450,13 +13447,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="D9" s="18" t="b">
         <v>0</v>
@@ -13464,13 +13461,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="D10" s="18" t="b">
         <v>0</v>
@@ -14141,7 +14138,7 @@
         <v>173</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>174</v>
@@ -14864,8 +14861,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -14905,13 +14902,13 @@
         <v>184</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>187</v>
+      <c r="D4" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -14961,7 +14958,7 @@
         <v>141</v>
       </c>
       <c r="D8" s="49">
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -14973,7 +14970,7 @@
         <v>142</v>
       </c>
       <c r="D9" s="49">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -15084,7 +15081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6A76F2-659C-4442-872D-E00A53914A87}">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -15100,76 +15097,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="107" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="100" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="104"/>
+      <c r="A3" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="99"/>
       <c r="C3" s="55">
         <v>15</v>
       </c>
-      <c r="D3" s="103" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="104"/>
+      <c r="D3" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="99"/>
       <c r="F3" s="56">
         <f>Frequency_Sweep!D5</f>
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="104"/>
+      <c r="A4" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="99"/>
       <c r="C4" s="55">
         <v>0</v>
       </c>
-      <c r="D4" s="103" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="104"/>
+      <c r="D4" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="99"/>
       <c r="F4" s="56">
         <f>Frequency_Sweep!D7</f>
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="106"/>
+      <c r="A5" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="101"/>
       <c r="C5" s="57">
         <v>10</v>
       </c>
-      <c r="D5" s="105" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="106"/>
+      <c r="D5" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="101"/>
       <c r="F5" s="58">
         <f>Frequency_Sweep!D8</f>
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15181,33 +15178,33 @@
       <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="109"/>
+      <c r="A7" s="102" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="D8" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="E8" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="65" t="s">
         <v>230</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -17291,17 +17288,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="E8">
     <cfRule type="expression" dxfId="5" priority="6">
@@ -17367,6 +17364,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -17518,27 +17535,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17554,28 +17575,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/validation_results/Validation_Inputs_Loci10_includeall.xlsx
+++ b/tests/validation_results/Validation_Inputs_Loci10_includeall.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB2909A-AB11-4201-A7F0-0637F093182C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697B1DA4-8ADC-4C73-813C-5AAB8A8BBB4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33450" yWindow="2355" windowWidth="21600" windowHeight="11385" tabRatio="814" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2760" windowWidth="21600" windowHeight="11385" tabRatio="814" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -1823,9 +1823,6 @@
     <t>HighLoad</t>
   </si>
   <si>
-    <t>AEMO_VIC_V0_20200723</t>
-  </si>
-  <si>
     <t>HighLoadTap</t>
   </si>
   <si>
@@ -1938,6 +1935,9 @@
   </si>
   <si>
     <t>201277_SMTS_6MN1</t>
+  </si>
+  <si>
+    <t>AEMO_VIC_V0_TEST_CASE</t>
   </si>
 </sst>
 </file>
@@ -2735,6 +2735,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2760,24 +2778,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -4300,8 +4300,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4352,41 +4352,41 @@
         <v>239</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>183</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="22" t="s">
         <v>243</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="D7" s="22" t="s">
         <v>246</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4730,13 +4730,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>249</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>191</v>
@@ -4768,22 +4768,22 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>252</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>253</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>191</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>191</v>
@@ -9826,7 +9826,7 @@
         <v>205</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>216</v>
@@ -9853,7 +9853,7 @@
         <v>206</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>216</v>
@@ -9880,7 +9880,7 @@
         <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>216</v>
@@ -9907,7 +9907,7 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>216</v>
@@ -9934,7 +9934,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>216</v>
@@ -9961,7 +9961,7 @@
         <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>216</v>
@@ -9988,7 +9988,7 @@
         <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>216</v>
@@ -10015,7 +10015,7 @@
         <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>216</v>
@@ -10042,7 +10042,7 @@
         <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>216</v>
@@ -10066,10 +10066,10 @@
     </row>
     <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" t="s">
         <v>264</v>
-      </c>
-      <c r="B15" t="s">
-        <v>265</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>216</v>
@@ -13391,13 +13391,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>266</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>267</v>
       </c>
       <c r="D5" s="18" t="b">
         <v>0</v>
@@ -13405,13 +13405,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>269</v>
       </c>
       <c r="D6" s="18" t="b">
         <v>0</v>
@@ -13419,13 +13419,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>271</v>
       </c>
       <c r="D7" s="18" t="b">
         <v>0</v>
@@ -13433,13 +13433,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="D8" s="18" t="b">
         <v>0</v>
@@ -13447,13 +13447,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>276</v>
       </c>
       <c r="D9" s="18" t="b">
         <v>0</v>
@@ -13461,13 +13461,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>278</v>
       </c>
       <c r="D10" s="18" t="b">
         <v>0</v>
@@ -14861,7 +14861,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -15097,73 +15097,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="107" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="109"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="103" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="55">
         <v>15</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="99"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="56">
         <f>Frequency_Sweep!D5</f>
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="99"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="55">
         <v>0</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="99"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="56">
         <f>Frequency_Sweep!D7</f>
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="57">
         <v>10</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="58">
         <f>Frequency_Sweep!D8</f>
         <v>2500</v>
@@ -15178,14 +15178,14 @@
       <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="104"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
     </row>
     <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
@@ -17288,17 +17288,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="E8">
     <cfRule type="expression" dxfId="5" priority="6">
@@ -17375,15 +17375,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -17535,6 +17526,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
   <ds:schemaRefs>
@@ -17552,14 +17552,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17575,4 +17567,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>